--- a/schedule_2025_6.xlsx
+++ b/schedule_2025_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ujjawal/Probe/doctor-sched/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C763E1B-FA68-8449-BA98-7B0AB26FE36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD869A-EAF2-F043-A7F5-F8A5477EA7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="54">
   <si>
     <t>ot_duty</t>
   </si>
@@ -54,45 +54,45 @@
     <t>Sun</t>
   </si>
   <si>
+    <t>Dr. Amit Tripathi</t>
+  </si>
+  <si>
+    <t>Dr. Kritika Prasad</t>
+  </si>
+  <si>
+    <t>Dr. Rashmi Sharma</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Dr. Ashok Kumar</t>
+  </si>
+  <si>
+    <t>Dr. Madhuri Tripathi</t>
+  </si>
+  <si>
     <t>Dr. Saumya Shukla</t>
   </si>
   <si>
-    <t>Dr. Kritika Prasad</t>
-  </si>
-  <si>
-    <t>Dr. Rashmi Sharma</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Dr. Ashok Kumar</t>
-  </si>
-  <si>
-    <t>Dr. Madhuri Tripathi</t>
+    <t>Tue</t>
   </si>
   <si>
     <t>Dr. Minakshi Mishra</t>
   </si>
   <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Dr. Amit Tripathi</t>
-  </si>
-  <si>
     <t>Wed</t>
   </si>
   <si>
     <t>Thu</t>
   </si>
   <si>
+    <t>Fri</t>
+  </si>
+  <si>
     <t>Dr. Abhilasha Mishra</t>
   </si>
   <si>
-    <t>Fri</t>
-  </si>
-  <si>
     <t>Sat</t>
   </si>
   <si>
@@ -105,28 +105,28 @@
     <t>total_shifts</t>
   </si>
   <si>
-    <t>(2, 'Mon', 'night')|(4, 'Wed', 'night')|(7, 'Sat', 'morning')|(8, 'Sun', 'evening')|(8, 'Sun', 'morning')|(9, 'Mon', 'morning')|(10, 'Tue', 'morning')|(11, 'Wed', 'morning')|(12, 'Thu', 'morning')|(13, 'Fri', 'night')|(17, 'Tue', 'morning')|(19, 'Thu', 'morning')|(20, 'Fri', 'night')|(22, 'Sun', 'night')|(24, 'Tue', 'night')|(27, 'Fri', 'morning')|(28, 'Sat', 'morning')</t>
-  </si>
-  <si>
-    <t>(5, 'Thu', 'night')|(5, 'Thu', 'ot_duty')|(7, 'Sat', 'ot_duty')|(8, 'Sun', 'night')|(8, 'Sun', 'ot_duty')|(12, 'Thu', 'night')|(12, 'Thu', 'ot_duty')|(18, 'Wed', 'ot_duty')|(19, 'Thu', 'night')|(19, 'Thu', 'ot_duty')|(26, 'Thu', 'night')|(26, 'Thu', 'ot_duty')|(28, 'Sat', 'ot_duty')</t>
-  </si>
-  <si>
-    <t>(3, 'Tue', 'ot_duty')|(10, 'Tue', 'ot_duty')|(11, 'Wed', 'ot_duty')|(14, 'Sat', 'ot_duty')|(15, 'Sun', 'night')|(15, 'Sun', 'ot_duty')|(17, 'Tue', 'ot_duty')|(18, 'Wed', 'night')|(24, 'Tue', 'ot_duty')|(25, 'Wed', 'night')|(28, 'Sat', 'night')</t>
-  </si>
-  <si>
-    <t>(3, 'Tue', 'morning')|(4, 'Wed', 'morning')|(6, 'Fri', 'night')|(9, 'Mon', 'night')|(11, 'Wed', 'night')|(13, 'Fri', 'morning')|(14, 'Sat', 'morning')|(15, 'Sun', 'evening')|(15, 'Sun', 'morning')|(16, 'Mon', 'morning')|(17, 'Tue', 'night')|(20, 'Fri', 'morning')|(21, 'Sat', 'morning')|(23, 'Mon', 'morning')|(26, 'Thu', 'morning')|(27, 'Fri', 'night')|(30, 'Mon', 'night')</t>
-  </si>
-  <si>
-    <t>(1, 'Sun', 'night')|(1, 'Sun', 'ot_duty')|(4, 'Wed', 'ot_duty')|(6, 'Fri', 'ot_duty')|(10, 'Tue', 'night')|(13, 'Fri', 'ot_duty')|(16, 'Mon', 'night')|(20, 'Fri', 'ot_duty')|(23, 'Mon', 'night')|(27, 'Fri', 'ot_duty')|(29, 'Sun', 'night')|(29, 'Sun', 'ot_duty')</t>
-  </si>
-  <si>
-    <t>(2, 'Mon', 'evening')|(3, 'Tue', 'evening')|(4, 'Wed', 'evening')|(5, 'Thu', 'evening')|(6, 'Fri', 'evening')|(7, 'Sat', 'evening')|(9, 'Mon', 'evening')|(10, 'Tue', 'evening')|(11, 'Wed', 'evening')|(12, 'Thu', 'evening')|(13, 'Fri', 'evening')|(14, 'Sat', 'evening')|(16, 'Mon', 'evening')|(17, 'Tue', 'evening')|(18, 'Wed', 'evening')|(19, 'Thu', 'evening')|(20, 'Fri', 'evening')|(21, 'Sat', 'evening')|(22, 'Sun', 'evening')|(22, 'Sun', 'morning')|(23, 'Mon', 'evening')|(24, 'Tue', 'evening')|(25, 'Wed', 'evening')|(26, 'Thu', 'evening')|(27, 'Fri', 'evening')|(28, 'Sat', 'evening')|(30, 'Mon', 'evening')</t>
-  </si>
-  <si>
-    <t>(1, 'Sun', 'evening')|(1, 'Sun', 'morning')|(2, 'Mon', 'morning')|(3, 'Tue', 'night')|(5, 'Thu', 'morning')|(6, 'Fri', 'morning')|(7, 'Sat', 'night')|(18, 'Wed', 'morning')|(21, 'Sat', 'night')|(24, 'Tue', 'morning')|(25, 'Wed', 'morning')|(29, 'Sun', 'evening')|(29, 'Sun', 'morning')|(30, 'Mon', 'morning')</t>
-  </si>
-  <si>
-    <t>(2, 'Mon', 'ot_duty')|(9, 'Mon', 'ot_duty')|(14, 'Sat', 'night')|(16, 'Mon', 'ot_duty')|(21, 'Sat', 'ot_duty')|(22, 'Sun', 'ot_duty')|(23, 'Mon', 'ot_duty')|(25, 'Wed', 'ot_duty')|(30, 'Mon', 'ot_duty')</t>
+    <t>(3, 'Tue', 'morning')|(4, 'Wed', 'morning')|(5, 'Thu', 'night')|(7, 'Sat', 'morning')|(9, 'Mon', 'night')|(11, 'Wed', 'morning')|(12, 'Thu', 'morning')|(18, 'Wed', 'morning')|(20, 'Fri', 'night')|(22, 'Sun', 'evening')|(22, 'Sun', 'morning')|(23, 'Mon', 'evening')|(24, 'Tue', 'morning')|(25, 'Wed', 'morning')|(26, 'Thu', 'morning')|(27, 'Fri', 'night')</t>
+  </si>
+  <si>
+    <t>(6, 'Fri', 'ot_duty')|(7, 'Sat', 'ot_duty')|(8, 'Sun', 'night')|(8, 'Sun', 'ot_duty')|(12, 'Thu', 'night')|(12, 'Thu', 'ot_duty')|(16, 'Mon', 'night')|(18, 'Wed', 'ot_duty')|(19, 'Thu', 'night')|(19, 'Thu', 'ot_duty')|(24, 'Tue', 'ot_duty')|(26, 'Thu', 'night')|(26, 'Thu', 'ot_duty')</t>
+  </si>
+  <si>
+    <t>(1, 'Sun', 'night')|(1, 'Sun', 'ot_duty')|(3, 'Tue', 'ot_duty')|(4, 'Wed', 'night')|(6, 'Fri', 'night')|(10, 'Tue', 'ot_duty')|(17, 'Tue', 'ot_duty')|(25, 'Wed', 'ot_duty')|(28, 'Sat', 'ot_duty')|(29, 'Sun', 'night')|(29, 'Sun', 'ot_duty')</t>
+  </si>
+  <si>
+    <t>(9, 'Mon', 'morning')|(11, 'Wed', 'night')|(13, 'Fri', 'morning')|(14, 'Sat', 'morning')|(15, 'Sun', 'evening')|(15, 'Sun', 'morning')|(16, 'Mon', 'morning')|(17, 'Tue', 'morning')|(18, 'Wed', 'night')|(20, 'Fri', 'morning')|(21, 'Sat', 'morning')|(23, 'Mon', 'morning')|(24, 'Tue', 'evening')|(25, 'Wed', 'night')|(27, 'Fri', 'morning')|(28, 'Sat', 'night')|(30, 'Mon', 'night')</t>
+  </si>
+  <si>
+    <t>(2, 'Mon', 'night')|(4, 'Wed', 'ot_duty')|(5, 'Thu', 'ot_duty')|(10, 'Tue', 'night')|(13, 'Fri', 'ot_duty')|(14, 'Sat', 'ot_duty')|(15, 'Sun', 'night')|(15, 'Sun', 'ot_duty')|(20, 'Fri', 'ot_duty')|(21, 'Sat', 'night')|(23, 'Mon', 'night')|(27, 'Fri', 'ot_duty')</t>
+  </si>
+  <si>
+    <t>(2, 'Mon', 'evening')|(3, 'Tue', 'evening')|(4, 'Wed', 'evening')|(5, 'Thu', 'evening')|(6, 'Fri', 'evening')|(7, 'Sat', 'evening')|(8, 'Sun', 'evening')|(8, 'Sun', 'morning')|(9, 'Mon', 'evening')|(10, 'Tue', 'evening')|(11, 'Wed', 'evening')|(12, 'Thu', 'evening')|(13, 'Fri', 'evening')|(14, 'Sat', 'evening')|(16, 'Mon', 'evening')|(17, 'Tue', 'evening')|(18, 'Wed', 'evening')|(19, 'Thu', 'evening')|(20, 'Fri', 'evening')|(21, 'Sat', 'evening')|(25, 'Wed', 'evening')|(26, 'Thu', 'evening')|(27, 'Fri', 'evening')|(28, 'Sat', 'evening')|(30, 'Mon', 'evening')</t>
+  </si>
+  <si>
+    <t>(1, 'Sun', 'evening')|(1, 'Sun', 'morning')|(2, 'Mon', 'morning')|(3, 'Tue', 'night')|(5, 'Thu', 'morning')|(6, 'Fri', 'morning')|(7, 'Sat', 'night')|(10, 'Tue', 'morning')|(13, 'Fri', 'night')|(17, 'Tue', 'night')|(19, 'Thu', 'morning')|(22, 'Sun', 'night')|(24, 'Tue', 'night')|(28, 'Sat', 'morning')|(29, 'Sun', 'evening')|(29, 'Sun', 'morning')|(30, 'Mon', 'morning')</t>
+  </si>
+  <si>
+    <t>(2, 'Mon', 'ot_duty')|(9, 'Mon', 'ot_duty')|(11, 'Wed', 'ot_duty')|(14, 'Sat', 'night')|(16, 'Mon', 'ot_duty')|(21, 'Sat', 'ot_duty')|(22, 'Sun', 'ot_duty')|(23, 'Mon', 'ot_duty')|(30, 'Mon', 'ot_duty')</t>
   </si>
   <si>
     <t>Date</t>
@@ -168,17 +168,44 @@
     <t>Leaves</t>
   </si>
   <si>
-    <t>14, 15, 16, 30</t>
-  </si>
-  <si>
-    <t>14, 15, 16</t>
+    <t xml:space="preserve">Dr. Minakshi Mishra </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14, 15, 16, 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Kritika Prasad  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14, 15, 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Ashok Kumar     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3, 4, 5, 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Amit Tripathi   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22, 23, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Rashmi Sharma   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1, 2, 3, 4, 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +236,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -312,12 +332,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,8 +348,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,19 +651,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -671,692 +692,692 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="3">
         <v>45809</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>45810</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>45811</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>45812</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>45813</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>45814</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>45815</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>45816</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>45817</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>45818</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>45819</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>45820</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>45821</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>45814</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>45822</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>45823</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>45824</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>45825</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>45826</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>45827</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>45828</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>45815</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>45829</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>45830</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>45831</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>45832</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>45833</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>45834</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>45835</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>45816</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>45836</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>45837</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>45817</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>45838</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>45818</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>45819</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>45820</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>45821</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>45822</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>45823</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>45824</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>45825</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>45826</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>45827</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>45828</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>45829</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>45830</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>45831</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>45832</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>45833</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>45834</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>45835</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>45836</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>45837</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>45838</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="D31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1376,53 +1397,59 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B34" s="10">
         <f>COUNTIF($C$2:$C$32, A34)</f>
         <v>7</v>
       </c>
       <c r="C34" s="10">
-        <f>COUNTIF($F$2:$F$32, A34)</f>
+        <f t="shared" ref="C34:C40" si="0">COUNTIF($F$2:$F$32, A34)</f>
         <v>5</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B35" s="10">
         <f>COUNTIF($C$2:$C$32, A35)</f>
         <v>7</v>
       </c>
       <c r="C35" s="10">
-        <f>COUNTIF($F$2:$F$32, A35)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>44</v>
+      <c r="E35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="10">
         <f>COUNTIF($C$2:$C$32, A36)</f>
         <v>8</v>
       </c>
       <c r="C36" s="10">
-        <f>COUNTIF($F$2:$F$32, A36)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1434,20 +1461,32 @@
         <v>8</v>
       </c>
       <c r="C37" s="10">
-        <f>COUNTIF($F$2:$F$32, A37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="10">
-        <f>COUNTIF($F$2:$F$32, A38)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1458,8 +1497,14 @@
         <v>40</v>
       </c>
       <c r="C39" s="10">
-        <f>COUNTIF($F$2:$F$32, A39)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1470,8 +1515,14 @@
         <v>40</v>
       </c>
       <c r="C40" s="10">
-        <f>COUNTIF($F$2:$F$32, A40)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1489,7 +1540,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G31" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1497,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="340" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1580,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1537,21 +1589,21 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1574,7 +1626,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -1606,10 +1658,10 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -1620,7 +1672,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -1652,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1661,7 +1713,7 @@
         <v>27</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1678,13 +1730,13 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1712,5 +1764,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/schedule_2025_6.xlsx
+++ b/schedule_2025_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ujjawal/Probe/doctor-sched/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD869A-EAF2-F043-A7F5-F8A5477EA7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B16F0E-B23D-004A-811B-D230ED0BBA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,9 +656,9 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="222" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -702,10 +702,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
